--- a/biology/Botanique/Hakeburg/Hakeburg.xlsx
+++ b/biology/Botanique/Hakeburg/Hakeburg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Hakeburg' est un cultivar de rosier grimpant obtenu en 1912 par le rosiériste allemand Hermann Kiese (1865-1923) et mis au commerce en 1913. Il s'agit d'un hybride de Rosa multiflora[1]. Il doit son nom au château d'Hakeburg, au sud de Berlin à Kleinmachnow, où son propriétaire Dietlow von Hake possédait une pépinière de roses et vendait entre autres cette variété. 
+'Hakeburg' est un cultivar de rosier grimpant obtenu en 1912 par le rosiériste allemand Hermann Kiese (1865-1923) et mis au commerce en 1913. Il s'agit d'un hybride de Rosa multiflora. Il doit son nom au château d'Hakeburg, au sud de Berlin à Kleinmachnow, où son propriétaire Dietlow von Hake possédait une pépinière de roses et vendait entre autres cette variété. 
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">'Hakeburg' se présente sous la forme d'un rosier grimpant fort vigoureux et presque inerme pouvant atteindre plus de 300 cm de hauteur. Ses fleurs doubles  (17-25 pétales) sont d'un rose lilas au cœur blanc fleurissant en de gros bouquets en juin-juillet.
-Il est très résistant au froid puisque sa zone de rusticité est de 4b-9b[1]. 
+Il est très résistant au froid puisque sa zone de rusticité est de 4b-9b. 
 On peut notamment l'admirer à l'Europa-Rosarium de Sangerhausen.
 </t>
         </is>
